--- a/data/usda-families/metadata/temperature_metadata.xlsx
+++ b/data/usda-families/metadata/temperature_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89E7CB1-959E-1F4D-B59F-26A9312C84F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF49C21F-F448-ED40-9B82-DA1102BC9FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29960" yWindow="-60" windowWidth="28800" windowHeight="18000" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -45,24 +45,6 @@
   </si>
   <si>
     <t>temperature</t>
-  </si>
-  <si>
-    <t>T0</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
   </si>
   <si>
     <t>18C</t>
@@ -451,7 +433,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,11 +457,11 @@
       <c r="A2">
         <v>20250506</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -487,11 +469,11 @@
       <c r="A3">
         <v>20250506</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="1">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -499,11 +481,11 @@
       <c r="A4">
         <v>20250506</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="1">
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -511,11 +493,11 @@
       <c r="A5">
         <v>20250506</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" s="1">
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -523,11 +505,11 @@
       <c r="A6">
         <v>20250506</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
+      <c r="B6" s="1">
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -535,11 +517,11 @@
       <c r="A7">
         <v>20250506</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
+      <c r="B7" s="1">
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1"/>
     </row>

--- a/data/usda-families/metadata/temperature_metadata.xlsx
+++ b/data/usda-families/metadata/temperature_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF49C21F-F448-ED40-9B82-DA1102BC9FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D69B3DD-DFD5-AE40-A097-3526DADCF806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
+    <workbookView xWindow="9660" yWindow="760" windowWidth="14360" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,38 +526,87 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8">
+        <v>20250513</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9">
+        <v>20250513</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10">
+        <v>20250513</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11">
+        <v>20250513</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12">
+        <v>20250513</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13">
+        <v>20250513</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14">
+        <v>20250513</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">

--- a/data/usda-families/metadata/temperature_metadata.xlsx
+++ b/data/usda-families/metadata/temperature_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D69B3DD-DFD5-AE40-A097-3526DADCF806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA403291-7C0A-6842-A8C9-E99ED22C7218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="760" windowWidth="14360" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="14360" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,91 +610,140 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15">
+        <v>20250520</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16">
+        <v>20250520</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20250520</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20250520</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20250520</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20250520</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20250520</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">

--- a/data/usda-families/metadata/temperature_metadata.xlsx
+++ b/data/usda-families/metadata/temperature_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA403291-7C0A-6842-A8C9-E99ED22C7218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A787C39-FD41-394C-8D20-FD13541EFA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="760" windowWidth="14360" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,38 +694,87 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22">
+        <v>20250527</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23">
+        <v>20250527</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24">
+        <v>20250527</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25">
+        <v>20250527</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26">
+        <v>20250527</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27">
+        <v>20250527</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28">
+        <v>20250527</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">

--- a/data/usda-families/metadata/temperature_metadata.xlsx
+++ b/data/usda-families/metadata/temperature_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A787C39-FD41-394C-8D20-FD13541EFA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45546594-D797-454A-AA06-3580D8559E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="760" windowWidth="14360" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,69 +778,122 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29">
+        <v>20250603</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30">
+        <v>20250603</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31">
+        <v>20250603</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20250603</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20250603</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20250603</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20250603</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">

--- a/data/usda-families/metadata/temperature_metadata.xlsx
+++ b/data/usda-families/metadata/temperature_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45546594-D797-454A-AA06-3580D8559E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35E4AAD-3F65-7C43-904B-ABC3EA148B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="760" windowWidth="14360" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5332F4-46C5-F947-90EB-95CC8225298E}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,25 +858,81 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
+      <c r="A36">
+        <v>20250610</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
+      <c r="A37">
+        <v>20250610</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
+      <c r="A38">
+        <v>20250610</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
+      <c r="A39">
+        <v>20250610</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
+      <c r="A40">
+        <v>20250610</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
+      <c r="A41">
+        <v>20250610</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
+      <c r="A42">
+        <v>20250610</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>

--- a/data/usda-families/metadata/temperature_metadata.xlsx
+++ b/data/usda-families/metadata/temperature_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35E4AAD-3F65-7C43-904B-ABC3EA148B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6156A4-C28A-5F48-8E77-108EBA9EFD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="760" windowWidth="14360" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <t>18C</t>
   </si>
   <si>
-    <t>42C</t>
+    <t>40C</t>
   </si>
 </sst>
 </file>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5332F4-46C5-F947-90EB-95CC8225298E}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
